--- a/teaching/traditional_assets/database/data/singapore/singapore_chemical_specialty.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_chemical_specialty.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.187</v>
+        <v>-0.3545</v>
       </c>
       <c r="G2">
-        <v>-0.0643010752688172</v>
+        <v>-0.284133156702705</v>
       </c>
       <c r="H2">
-        <v>-0.06487455197132617</v>
+        <v>-0.2841758899192343</v>
       </c>
       <c r="I2">
-        <v>-0.1476566594184904</v>
+        <v>-0.2901585402333234</v>
       </c>
       <c r="J2">
-        <v>-0.1476566594184904</v>
+        <v>-0.2901585402333234</v>
       </c>
       <c r="K2">
-        <v>-3.27</v>
+        <v>-5.94</v>
       </c>
       <c r="L2">
-        <v>-0.1172043010752688</v>
+        <v>-0.2538353061834964</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3.88</v>
+        <v>3.206</v>
       </c>
       <c r="V2">
-        <v>1.515625</v>
+        <v>0.1798093101514302</v>
       </c>
       <c r="W2">
-        <v>-0.1739361702127659</v>
+        <v>-0.1420577009429726</v>
       </c>
       <c r="X2">
-        <v>0.2118476117133205</v>
+        <v>0.08610330480140294</v>
       </c>
       <c r="Y2">
-        <v>-0.3857837819260864</v>
+        <v>-0.2281610057443755</v>
       </c>
       <c r="Z2">
-        <v>1.261695328436514</v>
+        <v>0.3102346546466923</v>
       </c>
       <c r="AA2">
-        <v>-0.1862977174008507</v>
+        <v>-0.1489424864728185</v>
       </c>
       <c r="AB2">
-        <v>0.09779707272690993</v>
+        <v>0.06929563796126464</v>
       </c>
       <c r="AC2">
-        <v>-0.2840947901277607</v>
+        <v>-0.2182381244340832</v>
       </c>
       <c r="AD2">
-        <v>7.59</v>
+        <v>12.03</v>
       </c>
       <c r="AE2">
-        <v>0.9631039888794098</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.55310398887941</v>
+        <v>12.03</v>
       </c>
       <c r="AG2">
-        <v>4.673103988879411</v>
+        <v>8.824</v>
       </c>
       <c r="AH2">
-        <v>0.7696413169028451</v>
+        <v>0.4028801071667783</v>
       </c>
       <c r="AI2">
-        <v>0.2943955314431553</v>
+        <v>0.1435047119169748</v>
       </c>
       <c r="AJ2">
-        <v>0.6460717274442769</v>
+        <v>0.3310572521947925</v>
       </c>
       <c r="AK2">
-        <v>0.1856387671120662</v>
+        <v>0.1094463187140306</v>
       </c>
       <c r="AL2">
-        <v>0.511</v>
+        <v>0.6890000000000001</v>
       </c>
       <c r="AM2">
-        <v>0.335</v>
+        <v>0.68</v>
       </c>
       <c r="AN2">
-        <v>-3.051869722557298</v>
+        <v>-2.345029239766082</v>
       </c>
       <c r="AO2">
-        <v>-8.434442270058707</v>
+        <v>-9.854862119013061</v>
       </c>
       <c r="AP2">
-        <v>-1.879012460345561</v>
+        <v>-1.720077972709552</v>
       </c>
       <c r="AQ2">
-        <v>-12.86567164179104</v>
+        <v>-9.985294117647058</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Matex International Limited (Catalist:M15)</t>
+          <t>AsiaPhos Limited (Catalist:5WV)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.187</v>
+        <v>-0.523</v>
       </c>
       <c r="G3">
-        <v>-0.0643010752688172</v>
+        <v>-2.553495007132668</v>
       </c>
       <c r="H3">
-        <v>-0.06487455197132617</v>
+        <v>-2.553495007132668</v>
       </c>
       <c r="I3">
-        <v>-0.1476566594184904</v>
+        <v>-2.425106990014265</v>
       </c>
       <c r="J3">
-        <v>-0.1476566594184904</v>
+        <v>-2.425106990014265</v>
       </c>
       <c r="K3">
-        <v>-3.27</v>
+        <v>-2.25</v>
       </c>
       <c r="L3">
-        <v>-0.1172043010752688</v>
+        <v>-3.209700427960057</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,201 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.88</v>
+        <v>0.446</v>
       </c>
       <c r="V3">
-        <v>1.515625</v>
+        <v>0.03811965811965812</v>
       </c>
       <c r="W3">
-        <v>-0.1739361702127659</v>
+        <v>-0.04293893129770993</v>
       </c>
       <c r="X3">
-        <v>0.2118476117133205</v>
+        <v>0.0730496602654967</v>
       </c>
       <c r="Y3">
-        <v>-0.3857837819260864</v>
+        <v>-0.1159885915632066</v>
       </c>
       <c r="Z3">
-        <v>1.261695328436514</v>
+        <v>0.01242467210209146</v>
       </c>
       <c r="AA3">
-        <v>-0.1862977174008507</v>
+        <v>-0.03013115916341723</v>
       </c>
       <c r="AB3">
-        <v>0.09779707272690993</v>
+        <v>0.07863107642809901</v>
       </c>
       <c r="AC3">
-        <v>-0.2840947901277607</v>
+        <v>-0.1087622355915162</v>
       </c>
       <c r="AD3">
-        <v>7.59</v>
+        <v>5.18</v>
       </c>
       <c r="AE3">
-        <v>0.9631039888794098</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.55310398887941</v>
+        <v>5.18</v>
       </c>
       <c r="AG3">
-        <v>4.673103988879411</v>
+        <v>4.734</v>
       </c>
       <c r="AH3">
-        <v>0.7696413169028451</v>
+        <v>0.3068720379146919</v>
       </c>
       <c r="AI3">
-        <v>0.2943955314431553</v>
+        <v>0.08198797087685976</v>
       </c>
       <c r="AJ3">
-        <v>0.6460717274442769</v>
+        <v>0.2880613362541074</v>
       </c>
       <c r="AK3">
-        <v>0.1856387671120662</v>
+        <v>0.07546147224790385</v>
       </c>
       <c r="AL3">
-        <v>0.511</v>
+        <v>0.35</v>
       </c>
       <c r="AM3">
-        <v>0.335</v>
+        <v>0.341</v>
       </c>
       <c r="AN3">
-        <v>-3.051869722557298</v>
+        <v>-4.144</v>
       </c>
       <c r="AO3">
-        <v>-8.434442270058707</v>
+        <v>-4.857142857142858</v>
       </c>
       <c r="AP3">
-        <v>-1.879012460345561</v>
+        <v>-3.7872</v>
       </c>
       <c r="AQ3">
-        <v>-12.86567164179104</v>
+        <v>-4.98533724340176</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Matex International Limited (Catalist:M15)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chemical (Specialty)</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>-0.186</v>
+      </c>
+      <c r="G4">
+        <v>-0.2140528634361233</v>
+      </c>
+      <c r="H4">
+        <v>-0.2140969162995595</v>
+      </c>
+      <c r="I4">
+        <v>-0.2242290748898678</v>
+      </c>
+      <c r="J4">
+        <v>-0.2242290748898678</v>
+      </c>
+      <c r="K4">
+        <v>-3.69</v>
+      </c>
+      <c r="L4">
+        <v>-0.1625550660792952</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2.76</v>
+      </c>
+      <c r="V4">
+        <v>0.4502446982055465</v>
+      </c>
+      <c r="W4">
+        <v>-0.2411764705882353</v>
+      </c>
+      <c r="X4">
+        <v>0.09915694933730917</v>
+      </c>
+      <c r="Y4">
+        <v>-0.3403334199255444</v>
+      </c>
+      <c r="Z4">
+        <v>1.194108364018937</v>
+      </c>
+      <c r="AA4">
+        <v>-0.2677538137822199</v>
+      </c>
+      <c r="AB4">
+        <v>0.05996019949443029</v>
+      </c>
+      <c r="AC4">
+        <v>-0.3277140132766502</v>
+      </c>
+      <c r="AD4">
+        <v>6.85</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>6.85</v>
+      </c>
+      <c r="AG4">
+        <v>4.09</v>
+      </c>
+      <c r="AH4">
+        <v>0.5277349768875192</v>
+      </c>
+      <c r="AI4">
+        <v>0.3317191283292978</v>
+      </c>
+      <c r="AJ4">
+        <v>0.4001956947162427</v>
+      </c>
+      <c r="AK4">
+        <v>0.2286193404136389</v>
+      </c>
+      <c r="AL4">
+        <v>0.339</v>
+      </c>
+      <c r="AM4">
+        <v>0.339</v>
+      </c>
+      <c r="AN4">
+        <v>-1.765463917525773</v>
+      </c>
+      <c r="AO4">
+        <v>-15.01474926253687</v>
+      </c>
+      <c r="AP4">
+        <v>-1.054123711340206</v>
+      </c>
+      <c r="AQ4">
+        <v>-15.01474926253687</v>
       </c>
     </row>
   </sheetData>
